--- a/controllers/my_controller/trajectory.xlsx
+++ b/controllers/my_controller/trajectory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keati\Desktop\autonomous sanitising robot\controllers\my_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E02D01C-D60C-4A45-AEED-E1BFA8CD7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA4DD3A-6E43-4FF1-9364-933C246CE6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,37 +88,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -402,10 +372,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$1:$B$78</c:f>
+              <c:f>Tabelle1!$B$1:$B$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>5.2</c:v>
                 </c:pt>
@@ -590,19 +560,19 @@
                   <c:v>1.0000000000001199</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.9</c:v>
+                  <c:v>0.79999999999988003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.79999999999988003</c:v>
+                  <c:v>0.69999999999976004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.69999999999976004</c:v>
+                  <c:v>0.59999999999964004</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.59999999999964004</c:v>
+                  <c:v>0.49999999999952099</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.49999999999952099</c:v>
@@ -635,9 +605,6 @@
                   <c:v>0.49999999999952099</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.49999999999952099</c:v>
-                </c:pt>
-                <c:pt idx="77">
                   <c:v>0.49999999999952099</c:v>
                 </c:pt>
               </c:numCache>
@@ -787,7 +754,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -805,9 +772,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -1398,15 +1363,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>345282</xdr:colOff>
+      <xdr:colOff>345283</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>135732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>21432</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1699,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2346,7 @@
         <v>2.5</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C62">
         <v>270</v>
@@ -2392,7 +2357,7 @@
         <v>2.6</v>
       </c>
       <c r="B63">
-        <v>0.9</v>
+        <v>0.79999999999988003</v>
       </c>
       <c r="C63">
         <v>270</v>
@@ -2403,7 +2368,7 @@
         <v>2.6</v>
       </c>
       <c r="B64">
-        <v>0.79999999999988003</v>
+        <v>0.69999999999976004</v>
       </c>
       <c r="C64">
         <v>270</v>
@@ -2414,7 +2379,7 @@
         <v>2.6</v>
       </c>
       <c r="B65">
-        <v>0.69999999999976004</v>
+        <v>0.59999999999964004</v>
       </c>
       <c r="C65">
         <v>270</v>
@@ -2425,7 +2390,7 @@
         <v>2.6</v>
       </c>
       <c r="B66">
-        <v>0.59999999999964004</v>
+        <v>0.49999999999952099</v>
       </c>
       <c r="C66">
         <v>270</v>
@@ -2579,7 +2544,7 @@
         <v>3.4</v>
       </c>
       <c r="B80">
-        <v>0.49999999999952099</v>
+        <v>0.5</v>
       </c>
       <c r="C80">
         <v>0</v>
